--- a/sheetFolder/MRSheet1.xlsx
+++ b/sheetFolder/MRSheet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROGRAMS\Mern_Stack Projects\Internship Projects  🔐🔐🔐\iCreateVideo-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROGRAMS\Mern_Stack Projects\Internship Projects  🔐🔐🔐\iCreateVideo-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263336F7-EDEF-4AA2-AC87-3B26769A0D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EF003-947B-45C8-B121-B8E44B3CDE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25FBBE3A-468A-4A4E-B416-BC06D11AB70C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>USERNAME</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>sujaldingankar@gmail.com</t>
+  </si>
+  <si>
+    <t>`02/05/2024</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,8 +611,8 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3">
-        <v>45327</v>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,8 +640,8 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
-        <v>45327</v>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -666,8 +669,8 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3">
-        <v>45327</v>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,8 +698,8 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3">
-        <v>45327</v>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,8 +727,8 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3">
-        <v>45327</v>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -753,8 +756,8 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3">
-        <v>45327</v>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -782,8 +785,8 @@
       <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3">
-        <v>45327</v>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -811,8 +814,8 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="3">
-        <v>45327</v>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -840,8 +843,8 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="3">
-        <v>45327</v>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -869,8 +872,8 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="3">
-        <v>45327</v>
+      <c r="I11" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sheetFolder/MRSheet1.xlsx
+++ b/sheetFolder/MRSheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROGRAMS\Mern_Stack Projects\Internship Projects  🔐🔐🔐\iCreateVideo-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EF003-947B-45C8-B121-B8E44B3CDE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B28B8A-981E-4D47-8169-1E3D47A34766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25FBBE3A-468A-4A4E-B416-BC06D11AB70C}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,17 +878,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0E70A75D-47AF-48A2-8A62-2A12C3BA0B66}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{8A24BCCC-17C0-4E9F-9943-85EF86D1EB89}"/>
-    <hyperlink ref="C4:C11" r:id="rId3" display="shubpatil@gmail.com" xr:uid="{4691B2E7-B7CD-421E-88BF-F8EE0E5F04DC}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{B57BCAC3-EF98-4104-91C2-39CAB20DD8DE}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{57FCBC6F-7C44-4613-8680-D04BAEF8CD01}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{93453E4B-585C-4D60-95BC-36F4047E08FD}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{8E5D6D4C-8931-4B17-A89D-7203D2D4DE37}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{06F0F9C7-5725-40BE-AF06-C9FCB22F5A92}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{ABB7CDCA-0D55-4B1C-BD22-6A6FD3D4D250}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{6C5077FF-8CAA-4F8E-9E20-4E6F2EA4AAD1}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{059ECB6F-B8A2-44E9-8904-FF483D490351}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{01E96372-316F-4062-8AD5-261AB08A8717}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{AA11C91E-1F89-464D-BF3C-5DD078FC3328}"/>
+    <hyperlink ref="C4:C11" r:id="rId3" display="shubpatil@gmail.com" xr:uid="{577C5CE6-415E-40A4-91E7-3D8EB0AFF172}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{24E4FE93-53FE-4BC6-836A-0132AC095E2C}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{0EE918C2-E040-493B-886C-3D6EC7DA0B3F}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{4B5241BA-547B-4AF6-93EF-54F96F68E077}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{2754BA11-26FF-41B1-B435-F14917EE1B42}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{DF038244-FFB0-4325-AD23-8023C0199011}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{B3780BF3-C647-4F79-B129-BB1A223A7480}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{181FD6FD-D4AD-4DBA-9525-4FD5FCEC8523}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{653DACA0-ECBB-41FA-ACDC-EA1CF224F4B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>

--- a/sheetFolder/MRSheet1.xlsx
+++ b/sheetFolder/MRSheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROGRAMS\Mern_Stack Projects\Internship Projects  🔐🔐🔐\iCreateVideo-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B28B8A-981E-4D47-8169-1E3D47A34766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EAEA9-DEDA-4C42-861E-7D6E8AA3B671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25FBBE3A-468A-4A4E-B416-BC06D11AB70C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>USERNAME</t>
   </si>
@@ -60,9 +60,6 @@
     <t>DOJ</t>
   </si>
   <si>
-    <t>E4111</t>
-  </si>
-  <si>
     <t>Kokan</t>
   </si>
   <si>
@@ -75,94 +72,19 @@
     <t>Sun Pharma</t>
   </si>
   <si>
-    <t>E4112</t>
-  </si>
-  <si>
-    <t>E4113</t>
-  </si>
-  <si>
-    <t>E4114</t>
-  </si>
-  <si>
     <t>E4115</t>
   </si>
   <si>
-    <t>E4116</t>
-  </si>
-  <si>
-    <t>E4117</t>
-  </si>
-  <si>
-    <t>E4118</t>
-  </si>
-  <si>
-    <t>E4119</t>
-  </si>
-  <si>
-    <t>E4110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Paresh Malik</t>
-  </si>
-  <si>
-    <t>pareshmalik@gmail.com</t>
-  </si>
-  <si>
-    <t>Shub Patil</t>
-  </si>
-  <si>
-    <t>shubpatil@gmail.com</t>
-  </si>
-  <si>
-    <t>Arti Javekar</t>
-  </si>
-  <si>
-    <t>artijavekar@gmail.com</t>
-  </si>
-  <si>
-    <t>Smeet Jha</t>
-  </si>
-  <si>
-    <t>smeetjha@gmail.com</t>
-  </si>
-  <si>
     <t>dhruv jain</t>
   </si>
   <si>
     <t>dhruvjain@gmail.com</t>
   </si>
   <si>
-    <t>Yash bari</t>
-  </si>
-  <si>
-    <t>yashbari@gmail.com</t>
-  </si>
-  <si>
-    <t>Fawaz khan</t>
-  </si>
-  <si>
-    <t>fawazkhan@gmail.com</t>
-  </si>
-  <si>
-    <t>Umesh Rathod</t>
-  </si>
-  <si>
-    <t>umeshrathod@gmail.com</t>
-  </si>
-  <si>
-    <t>Soham Rajin</t>
-  </si>
-  <si>
-    <t>sohamrajin@gmail.com</t>
-  </si>
-  <si>
-    <t>Sujal dingankar</t>
-  </si>
-  <si>
-    <t>sujaldingankar@gmail.com</t>
-  </si>
-  <si>
     <t>`02/05/2024</t>
+  </si>
+  <si>
+    <t>dhruv123</t>
   </si>
 </sst>
 </file>
@@ -541,7 +463,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,309 +510,74 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>12345</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>12345</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <v>12345</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>12345</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>12345</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>12345</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>12345</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>12345</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>12345</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11">
-        <v>12345</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="I11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{01E96372-316F-4062-8AD5-261AB08A8717}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{AA11C91E-1F89-464D-BF3C-5DD078FC3328}"/>
-    <hyperlink ref="C4:C11" r:id="rId3" display="shubpatil@gmail.com" xr:uid="{577C5CE6-415E-40A4-91E7-3D8EB0AFF172}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{24E4FE93-53FE-4BC6-836A-0132AC095E2C}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{0EE918C2-E040-493B-886C-3D6EC7DA0B3F}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{4B5241BA-547B-4AF6-93EF-54F96F68E077}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{2754BA11-26FF-41B1-B435-F14917EE1B42}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{DF038244-FFB0-4325-AD23-8023C0199011}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{B3780BF3-C647-4F79-B129-BB1A223A7480}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{181FD6FD-D4AD-4DBA-9525-4FD5FCEC8523}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{653DACA0-ECBB-41FA-ACDC-EA1CF224F4B8}"/>
+    <hyperlink ref="C2" r:id="rId1" display="shubpatil@gmail.com" xr:uid="{9EAAE93D-F776-408E-BC5C-41AA9E4BD718}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>